--- a/TestData/firstFlow/createDrPolicy.xlsx
+++ b/TestData/firstFlow/createDrPolicy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\OneForAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB5A18-BDD2-4F90-892A-826F45508AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA4CE6-336F-4523-8DE9-212075A2F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DR Name</t>
   </si>
@@ -81,19 +81,7 @@
     <t>pranavpawar309@gmail.com</t>
   </si>
   <si>
-    <t>By Frequency</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Trial12</t>
-  </si>
-  <si>
-    <t>Trial11</t>
+    <t>firstFlow</t>
   </si>
 </sst>
 </file>
@@ -439,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +505,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -530,50 +518,14 @@
       </c>
       <c r="F2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{37DE7C63-B6E7-468E-9D3C-927BB896E302}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{30F01995-4309-459D-9779-118C93E386D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>